--- a/maps/Map data .xlsx
+++ b/maps/Map data .xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\GitHub\Pokemon-Le-Reglement-\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAA040ED-EB81-463C-8EF7-44E5630E8C34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C170A3-F106-4269-9AB0-4D2CFE28AAB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="1500" windowWidth="21600" windowHeight="11385" xr2:uid="{0CDC982D-5AF6-4036-9EB5-05390E67BB9E}"/>
+    <workbookView xWindow="6645" yWindow="300" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{0CDC982D-5AF6-4036-9EB5-05390E67BB9E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Banque 1" sheetId="3" r:id="rId1"/>
+    <sheet name="Banque 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Banque3" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t xml:space="preserve">Nom Map </t>
   </si>
@@ -75,10 +77,31 @@
     <t>Wrap n°5</t>
   </si>
   <si>
-    <t>Pallet town</t>
-  </si>
-  <si>
-    <t>3.66</t>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Route 1</t>
+  </si>
+  <si>
+    <t>Code couleur</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>Route 2.1</t>
+  </si>
+  <si>
+    <t>Route2.2</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>3.20</t>
   </si>
 </sst>
 </file>
@@ -94,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +127,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,9 +155,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,15 +474,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22331E5-3188-44C9-8E3E-844787AB61DE}">
-  <dimension ref="A1:M70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166E9B0C-A19A-4996-BBAB-E77745C35BB5}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8E2130-ADF9-44F7-A735-3AFF41472DF3}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22331E5-3188-44C9-8E3E-844787AB61DE}">
+  <dimension ref="A1:M72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
@@ -453,148 +574,331 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f>C4+1</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:C25" si="0">C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
@@ -710,6 +1014,12 @@
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H72" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/maps/Map data .xlsx
+++ b/maps/Map data .xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\GitHub\Pokemon-Le-Reglement-\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C170A3-F106-4269-9AB0-4D2CFE28AAB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68355D56-5E53-4E63-A42B-A24D6C2E0313}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="300" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{0CDC982D-5AF6-4036-9EB5-05390E67BB9E}"/>
+    <workbookView xWindow="2865" yWindow="4440" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{0CDC982D-5AF6-4036-9EB5-05390E67BB9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Banque 1" sheetId="3" r:id="rId1"/>
     <sheet name="Banque 2" sheetId="4" r:id="rId2"/>
     <sheet name="Banque3" sheetId="1" r:id="rId3"/>
+    <sheet name="Banque 4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t xml:space="preserve">Nom Map </t>
   </si>
@@ -102,6 +103,21 @@
   </si>
   <si>
     <t>3.20</t>
+  </si>
+  <si>
+    <t>Maison hero</t>
+  </si>
+  <si>
+    <t>maison rival</t>
+  </si>
+  <si>
+    <t>labo</t>
+  </si>
+  <si>
+    <t>maison pnj</t>
+  </si>
+  <si>
+    <t>3.0</t>
   </si>
 </sst>
 </file>
@@ -559,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22331E5-3188-44C9-8E3E-844787AB61DE}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,6 +862,9 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -875,7 +894,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F25" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="1"/>
@@ -1025,4 +1044,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A559838-220F-4017-98E2-FEAC8997BD72}">
+  <dimension ref="A2:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f>C3+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">C4+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/maps/Map data .xlsx
+++ b/maps/Map data .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\GitHub\Pokemon-Le-Reglement-\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68355D56-5E53-4E63-A42B-A24D6C2E0313}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A614E1C4-6D6A-4638-B3A0-168C76FF6222}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="4440" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{0CDC982D-5AF6-4036-9EB5-05390E67BB9E}"/>
+    <workbookView xWindow="2850" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{0CDC982D-5AF6-4036-9EB5-05390E67BB9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Banque 1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t xml:space="preserve">Nom Map </t>
   </si>
@@ -118,16 +118,28 @@
   </si>
   <si>
     <t>3.0</t>
+  </si>
+  <si>
+    <t>Route2.3</t>
+  </si>
+  <si>
+    <t>3.22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -575,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22331E5-3188-44C9-8E3E-844787AB61DE}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:C25" si="0">C5+1</f>
+        <f t="shared" ref="C6:C69" si="0">C5+1</f>
         <v>2</v>
       </c>
       <c r="H6" s="1"/>
@@ -897,150 +909,535 @@
       <c r="F25" t="s">
         <v>21</v>
       </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3">
+        <v>3</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3">
+        <v>3</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3">
+        <v>3</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3">
+        <v>3</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3">
+        <v>3</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3">
+        <v>3</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3">
+        <v>3</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3">
+        <v>3</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3">
+        <v>3</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3">
+        <v>3</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3">
+        <v>3</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3">
+        <v>3</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" ref="C70:C72" si="1">C69+1</f>
+        <v>66</v>
+      </c>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3">
+        <v>3</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3">
+        <v>3</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
       <c r="H72" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/maps/Map data .xlsx
+++ b/maps/Map data .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\GitHub\Pokemon-Le-Reglement-\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A614E1C4-6D6A-4638-B3A0-168C76FF6222}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F085B3D-F035-4E56-B5D3-79A9CF357C0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{0CDC982D-5AF6-4036-9EB5-05390E67BB9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CDC982D-5AF6-4036-9EB5-05390E67BB9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Banque 1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t xml:space="preserve">Nom Map </t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>3.22</t>
+  </si>
+  <si>
+    <t>Foret</t>
+  </si>
+  <si>
+    <t>grotte</t>
   </si>
 </sst>
 </file>
@@ -503,12 +509,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166E9B0C-A19A-4996-BBAB-E77745C35BB5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <f>C4+1</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:C19" si="0">C5+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -587,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22331E5-3188-44C9-8E3E-844787AB61DE}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/maps/Map data .xlsx
+++ b/maps/Map data .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\GitHub\Pokemon-Le-Reglement-\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F085B3D-F035-4E56-B5D3-79A9CF357C0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A860D4-F426-46C5-8F3A-41ECBDBC2CA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CDC982D-5AF6-4036-9EB5-05390E67BB9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0CDC982D-5AF6-4036-9EB5-05390E67BB9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Banque 1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t xml:space="preserve">Nom Map </t>
   </si>
@@ -96,15 +96,6 @@
     <t>Route2.2</t>
   </si>
   <si>
-    <t>3.19</t>
-  </si>
-  <si>
-    <t>3.21</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
     <t>Maison hero</t>
   </si>
   <si>
@@ -130,6 +121,45 @@
   </si>
   <si>
     <t>grotte</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>Ville 1</t>
+  </si>
+  <si>
+    <t>Ville 2</t>
+  </si>
+  <si>
+    <t>Ville 3 N-O</t>
+  </si>
+  <si>
+    <t>Ville 3 N-E</t>
+  </si>
+  <si>
+    <t>Ville 3 S-O</t>
+  </si>
+  <si>
+    <t>Ville 3 S-E</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
   </si>
 </sst>
 </file>
@@ -511,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166E9B0C-A19A-4996-BBAB-E77745C35BB5}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +556,10 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -813,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22331E5-3188-44C9-8E3E-844787AB61DE}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +909,9 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -887,12 +919,14 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -903,7 +937,9 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -911,10 +947,18 @@
         <f t="shared" ref="C6:C69" si="0">C5+1</f>
         <v>2</v>
       </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -922,10 +966,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -933,16 +985,30 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1090,59 +1156,41 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
       </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
@@ -1151,13 +1199,15 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F26" t="s">
-        <v>20</v>
+      <c r="D26" t="s">
+        <v>23</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B27" s="3">
         <v>3</v>
       </c>
@@ -1165,10 +1215,15 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B28" s="3">
         <v>3</v>
       </c>
@@ -1176,16 +1231,27 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B29" s="3">
         <v>3</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -1725,7 +1791,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1736,7 +1802,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1748,7 +1814,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1760,7 +1826,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>4</v>

--- a/maps/Map data .xlsx
+++ b/maps/Map data .xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\GitHub\Pokemon-Le-Reglement-\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A860D4-F426-46C5-8F3A-41ECBDBC2CA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6645A1DA-2EE7-4CA3-AB99-670237FAFFBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0CDC982D-5AF6-4036-9EB5-05390E67BB9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{0CDC982D-5AF6-4036-9EB5-05390E67BB9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Banque 1" sheetId="3" r:id="rId1"/>
     <sheet name="Banque 2" sheetId="4" r:id="rId2"/>
     <sheet name="Banque3" sheetId="1" r:id="rId3"/>
     <sheet name="Banque 4" sheetId="5" r:id="rId4"/>
+    <sheet name="Banque 5" sheetId="6" r:id="rId5"/>
+    <sheet name="Banque 6" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
   <si>
     <t xml:space="preserve">Nom Map </t>
   </si>
@@ -160,6 +162,24 @@
   </si>
   <si>
     <t>3.5</t>
+  </si>
+  <si>
+    <t>Sous terrain officiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sous terrain clandestin </t>
+  </si>
+  <si>
+    <t>Entrée Nord</t>
+  </si>
+  <si>
+    <t>Entrée Sud</t>
+  </si>
+  <si>
+    <t>Sous Terrain</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
   </si>
 </sst>
 </file>
@@ -843,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22331E5-3188-44C9-8E3E-844787AB61DE}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,4 +1859,379 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F0D0EE-CF98-4977-BD9D-BF1F711B8DCC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C56FFFA-74F6-48D5-AE16-075799D88611}">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <f>C4+1</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:C29" si="0">C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>